--- a/biology/Zoologie/Cybister/Cybister.xlsx
+++ b/biology/Zoologie/Cybister/Cybister.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cybister est un genre d'insectes de l'ordre des coléoptères, de la famille des dytiscidés, de la sous-famille des dytiscinés.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (7 févr. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (7 févr. 2015) :
 Cybister (Cybister) senegalensis Aubé, 1838
 Cybister (Cybister) tripunctatus (Olivier, 1795)
 Cybister (Melanectes) vulneratus Klug, 1834
@@ -545,9 +559,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (31 août 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (31 août 2014) :
 Cybister alemon
 Cybister alluaudi
 Cybister aterrimus
@@ -648,7 +664,7 @@
 Cybister wittmeri
 Cybister yulensis
 Cybister zimmermanni
-Selon ITIS      (31 août 2014)[3] :
+Selon ITIS      (31 août 2014) :
 sous-genre Cybister (Cybister) Curtis, 1827
 sous-genre Cybister (Megadytoides) Brinck, 1945
 sous-genre Cybister (Melanectes) Brinck, 1945
